--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_4_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_4_1.xlsx
@@ -518,221 +518,221 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_15</t>
+          <t>model_4_1_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999915321675609</v>
+        <v>0.9999883766905364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990051886458369</v>
+        <v>0.9990763696861915</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999947901741387</v>
+        <v>0.9998847004665484</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999885876913698</v>
+        <v>0.9999555142890902</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999692495748986</v>
+        <v>0.9999551870836477</v>
       </c>
       <c r="G2" t="n">
-        <v>7.904349887017053e-06</v>
+        <v>1.08498491799751e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009286127319396271</v>
+        <v>0.0008621683552551126</v>
       </c>
       <c r="I2" t="n">
-        <v>5.740221104085762e-06</v>
+        <v>6.009567670918541e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>4.361512177083235e-05</v>
+        <v>7.715827665666917e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>2.467767143745906e-05</v>
+        <v>3.390575218742616e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001753081791408574</v>
+        <v>0.0001808095446586555</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002811467568195844</v>
+        <v>0.003293910924717774</v>
       </c>
       <c r="N2" t="n">
-        <v>0.999932257340487</v>
+        <v>0.9999070135242913</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002931157563114127</v>
+        <v>0.00343413953211862</v>
       </c>
       <c r="P2" t="n">
-        <v>65.49619466283269</v>
+        <v>64.86271875707509</v>
       </c>
       <c r="Q2" t="n">
-        <v>91.0925869850649</v>
+        <v>90.45911107930729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_18</t>
+          <t>model_4_1_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999916493926292</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990048908031837</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999946949646881</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998879147059532</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999696694382969</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G3" t="n">
-        <v>7.794925431373662e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009288907549826594</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I3" t="n">
-        <v>5.845123515900448e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.283632617185989e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>2.434072484388017e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000174318323457219</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002791939367424311</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9999331951410335</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002910798006406801</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P3" t="n">
-        <v>65.52407524342556</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q3" t="n">
-        <v>91.12046756565776</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_17</t>
+          <t>model_4_1_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999916657491428</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990046866418879</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999948094325902</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998878434535188</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999697310511924</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G4" t="n">
-        <v>7.779657343935287e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009290813305906299</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I4" t="n">
-        <v>5.719002013037601e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>4.286355715294234e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>2.429127958298997e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001741014149942691</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002789203711444413</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9999333259931422</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00290794588788825</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P4" t="n">
-        <v>65.52799652787976</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.12438885011197</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_16</t>
+          <t>model_4_1_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999916089932582</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990046361742685</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999947617618036</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998871221610176</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999695265784641</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G5" t="n">
-        <v>7.832636470848831e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009291284398980809</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I5" t="n">
-        <v>5.771526005659828e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>4.313921794417785e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>2.445537197491884e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001747447845574806</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002798684775184378</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9999328719460658</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002917830580140133</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P5" t="n">
-        <v>65.51442278121557</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q5" t="n">
-        <v>91.11081510344778</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="6">
@@ -742,437 +742,437 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999917010928993</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990046120635229</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999946714832523</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998887653166981</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999698558592413</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G6" t="n">
-        <v>7.746665498578305e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009291509462206879</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I6" t="n">
-        <v>5.870995519568521e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>4.251124303204322e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>2.419111927580587e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001740103858036952</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002783283222846411</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N6" t="n">
-        <v>0.999933608743194</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00290177335183353</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P6" t="n">
-        <v>65.53649613086924</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q6" t="n">
-        <v>91.13288845310144</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_14</t>
+          <t>model_4_1_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999991592775317</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990045803858097</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999948112413649</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998867530424351</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999694726533492</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G7" t="n">
-        <v>7.84777520703338e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009291805159754178</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I7" t="n">
-        <v>5.717009092951172e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>4.328028626299942e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>2.44986476779753e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001750533470168976</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002801388085759162</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9999327422025361</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00292064897624271</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P7" t="n">
-        <v>65.51056095891163</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.10695328114383</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_20</t>
+          <t>model_4_1_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999917749497698</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990044485576127</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999946054016042</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998900766171476</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999701227319214</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G8" t="n">
-        <v>7.677723351974654e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009293035718107461</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I8" t="n">
-        <v>5.943804722832639e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>4.201009527452357e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>2.39769499986781e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001733988642146908</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002770870504367653</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9999341995981581</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002888832198231262</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P8" t="n">
-        <v>65.55437498659251</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q8" t="n">
-        <v>91.15076730882471</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_22</t>
+          <t>model_4_1_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999918058919069</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990044404898193</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999944088121213</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998910993457268</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999702313024162</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G9" t="n">
-        <v>7.648840225049529e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009293111027418555</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I9" t="n">
-        <v>6.160408334739606e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>4.161923280340741e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>2.388982056907351e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001729601976109082</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002765653670481814</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9999344471352556</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002883393272926568</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P9" t="n">
-        <v>65.5619130523753</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q9" t="n">
-        <v>91.15830537460751</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_13</t>
+          <t>model_4_1_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999991595780823</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990042869964144</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999947667411616</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998869309371538</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999694844640323</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G10" t="n">
-        <v>7.844969699218168e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009294543820976796</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I10" t="n">
-        <v>5.766039715558071e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>4.321229914427574e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>2.44891694299169e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001751459692336603</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002800887305697637</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9999327662465838</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002920126876937208</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P10" t="n">
-        <v>65.51127606843818</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q10" t="n">
-        <v>91.1076683906704</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_21</t>
+          <t>model_4_1_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999918005234908</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990042555039631</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999944514642352</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998908998227372</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999702130731309</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G11" t="n">
-        <v>7.653851405896871e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009294837789186646</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I11" t="n">
-        <v>6.113413949429824e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>4.169548573148818e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3904449840459e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001731516632319914</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002766559488949564</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9999344041879263</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002884337653961793</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P11" t="n">
-        <v>65.56060317012783</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.15699549236004</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_23</t>
+          <t>model_4_1_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999918442853586</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990042253193172</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999941792995098</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998923401588309</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999703692005818</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G12" t="n">
-        <v>7.613001623245229e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009295119549605606</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I12" t="n">
-        <v>6.413286870675214e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>4.114502362819426e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>2.377915524943474e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001725117297856007</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002759166834978492</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9999347542828687</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002876630279406269</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P12" t="n">
-        <v>65.57130606484009</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.16769838707229</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_24</t>
+          <t>model_4_1_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999918519587402</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990042001358092</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999941728223839</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998924725025674</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999703962667984</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G13" t="n">
-        <v>7.605838858376975e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009295354626599452</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I13" t="n">
-        <v>6.420423411424462e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>4.109444500846581e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>2.375743420994514e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001720911634683612</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00275786853536875</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9999348156699215</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002875276708494289</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P13" t="n">
-        <v>65.57318866960378</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.16958099183597</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999917362286481</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999003840953576</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999950358282084</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998883379236724</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999970004204353</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G14" t="n">
-        <v>7.713867819315597e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009298707435083839</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I14" t="n">
-        <v>5.469557801230899e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>4.267458245324977e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>2.407207012724033e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001745834954091808</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002777385068606007</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N14" t="n">
-        <v>0.999933889829185</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00289562410095625</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P14" t="n">
-        <v>65.54498166698569</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.1413739892179</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_11</t>
+          <t>model_4_1_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999915034098711</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990031454284097</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999995121129218</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999884591312232</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999691706494445</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G15" t="n">
-        <v>7.931193928144504e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009305199857209942</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I15" t="n">
-        <v>5.375572576388628e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>4.410644798977863e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>2.474101028308363e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001788256932808619</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00281623754824491</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9999320272789687</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002936130611089102</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P15" t="n">
-        <v>65.48941395049239</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.0858062727246</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_10</t>
+          <t>model_4_1_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999913645781877</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990014612583812</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999951535093421</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998825077702066</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999686967619684</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G16" t="n">
-        <v>8.060787210516941e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009320920845160795</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I16" t="n">
-        <v>5.339895938227627e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>4.490272805981401e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>2.512131199902082e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001827967945416011</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002839152551469706</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9999309166255017</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002960021153441772</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P16" t="n">
-        <v>65.45699867483279</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.05339099706499</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_9</t>
+          <t>model_4_1_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999911845547305</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989993269777929</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999995361416495</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998793085042276</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999680777019516</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G17" t="n">
-        <v>8.22883120577786e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009340843417611782</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I17" t="n">
-        <v>5.110822441531552e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>4.612541121510238e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>2.561811682831696e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001855872900197942</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002868593942296097</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9999294764378437</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002990715925227724</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P17" t="n">
-        <v>65.41573313933891</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.01212546157112</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_8</t>
+          <t>model_4_1_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999908366467668</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989965326075961</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999952114493496</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998753862195696</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999670408123856</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G18" t="n">
-        <v>8.553588018463725e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009366927636811823</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I18" t="n">
-        <v>5.276057249050145e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>4.762441486562087e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>2.645023605733551e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001992299797437665</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002924651777299945</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9999266931741344</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003049160258323402</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P18" t="n">
-        <v>65.33831942352454</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.93471174575674</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_7</t>
+          <t>model_4_1_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999908022686281</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989957828785355</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999951804644948</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998751537076341</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999669641783867</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G19" t="n">
-        <v>8.585678501894248e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009373926028500246</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I19" t="n">
-        <v>5.310196570116383e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>4.771327538201839e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>2.651173597606739e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002003822766427952</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002930132847140936</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9999264181490251</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003054874668654902</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P19" t="n">
-        <v>65.33083006663945</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.92722238887166</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_6</t>
+          <t>model_4_1_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999900595440318</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989906017977527</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999948354131115</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998680177796432</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999650281633786</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G20" t="n">
-        <v>9.278979310777913e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009422289143375636</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I20" t="n">
-        <v>5.690376500239467e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>5.044045686965011e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>2.806541668494479e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002258241919792538</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003046141708912754</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N20" t="n">
-        <v>0.999920476352254</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003175822267843796</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P20" t="n">
-        <v>65.17551801055603</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.77191033278825</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_5</t>
+          <t>model_4_1_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999901914262954</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989882856114906</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999994677983031</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998720207753288</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999658732518122</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G21" t="n">
-        <v>9.155873006558523e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009443909725444528</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I21" t="n">
-        <v>5.863834019680586e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>4.891060738927988e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>2.738722070448024e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002293427860719542</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003025867314764235</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9999215314103633</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003154684750762594</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P21" t="n">
-        <v>65.20223005187944</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.79862237411166</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_4</t>
+          <t>model_4_1_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999896384403202</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989777057468455</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999956081732799</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998704587867662</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999966139873114</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G22" t="n">
-        <v>9.672061141239151e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009542668117882046</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I22" t="n">
-        <v>4.83894415962668e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>4.950756216478088e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>2.717325316220378e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002634604261364954</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003109993752604521</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9999171075225615</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003242392625227474</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P22" t="n">
-        <v>65.09253824640739</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.68893056863959</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_1</t>
+          <t>model_4_1_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999914814091508</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989635334946416</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999971809958177</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999718500456334</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999913620042815</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G23" t="n">
-        <v>7.951730634736185e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009674959871305659</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I23" t="n">
-        <v>3.105997730244663e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>1.075824118787328e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>6.932119459058971e-06</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002417977571026233</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002819881315718125</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9999318512732067</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002939929501287289</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P23" t="n">
-        <v>65.48424192617024</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.08063424840245</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_0</t>
+          <t>model_4_1_11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999894013967707</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989607608807731</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999974427586414</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999688502526853</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999908274114756</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G24" t="n">
-        <v>9.893330889636141e-06</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009700841004731477</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I24" t="n">
-        <v>2.817585693941871e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>1.19046905081246e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>7.361138101033234e-06</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002605597860863905</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00314536657476297</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9999152111741658</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003279271341657045</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P24" t="n">
-        <v>65.04729935067533</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64369167290754</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_3</t>
+          <t>model_4_1_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999988541155278</v>
+        <v>0.9999883732771242</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989540066056912</v>
+        <v>0.9990763349190175</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999954292732836</v>
+        <v>0.999884675322807</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999864523366284</v>
+        <v>0.9999554747297839</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999646037710086</v>
+        <v>0.9999551738887966</v>
       </c>
       <c r="G25" t="n">
-        <v>1.069632856285392e-05</v>
+        <v>1.085303545036088e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009763889197837497</v>
+        <v>0.000862200808886027</v>
       </c>
       <c r="I25" t="n">
-        <v>5.036057376472144e-06</v>
+        <v>6.010878196739078e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>5.177593831446404e-05</v>
+        <v>7.722689032709038e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>2.84059978454681e-05</v>
+        <v>3.391573550004991e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002935782010320424</v>
+        <v>0.0001805656912053873</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003270524203068053</v>
+        <v>0.00329439454989242</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9999083292422242</v>
+        <v>0.9999069862169936</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003409757189311083</v>
+        <v>0.003434643746218193</v>
       </c>
       <c r="P25" t="n">
-        <v>64.89122000068835</v>
+        <v>64.86213150418904</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.48761232292055</v>
+        <v>90.45852382642124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_2</t>
+          <t>model_4_1_1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999889621838857</v>
+        <v>0.9999883732529106</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989456936020901</v>
+        <v>0.9990763345479079</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999909772140135</v>
+        <v>0.9998846742520465</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999919031904967</v>
+        <v>0.9999554742748287</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999745266749588</v>
+        <v>0.9999551734678351</v>
       </c>
       <c r="G26" t="n">
-        <v>1.03033168386202e-05</v>
+        <v>1.085305805279045e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009841487437467027</v>
+        <v>0.0008622011553005565</v>
       </c>
       <c r="I26" t="n">
-        <v>9.941366163952705e-06</v>
+        <v>6.010934006220933e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>3.094407484803236e-05</v>
+        <v>7.722767942442271e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>2.044272050599253e-05</v>
+        <v>3.39160540023258e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003550061559824882</v>
+        <v>0.0001805791385981237</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003209878009928134</v>
+        <v>0.003294397980328189</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9999116974710853</v>
+        <v>0.9999069860232845</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003346529162174271</v>
+        <v>0.003434647322694715</v>
       </c>
       <c r="P26" t="n">
-        <v>64.96608938280001</v>
+        <v>64.86212733901218</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.56248170503221</v>
+        <v>90.4585196612444</v>
       </c>
     </row>
   </sheetData>
